--- a/Assignment3/Tables/table1.xlsx
+++ b/Assignment3/Tables/table1.xlsx
@@ -1,74 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mint\new\anything\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjeev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE5CD0-E1A4-4C2F-AD7E-54C99D69C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Description</t>
+    <t>Number of Boys</t>
   </si>
   <si>
-    <t xml:space="preserve">    X=0</t>
+    <t>Number of Girls</t>
   </si>
   <si>
-    <t xml:space="preserve">  Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    X=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doesn't hit a boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       hit a boundary</t>
+    <t>Total number of Students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,112 +64,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -221,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -233,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -280,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,50 +355,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>